--- a/Docs/Doc.xlsx
+++ b/Docs/Doc.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B14B54-D10A-4D32-AFA4-4E10ECC7FC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2246502-6040-4186-8D6D-F8C2B98C1CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,10 +38,6 @@
   </si>
   <si>
     <t>Quelltext-zeilen</t>
-  </si>
-  <si>
-    <t>Schwierigkeitsgrad 
-(1-3)</t>
   </si>
   <si>
     <t>Programmierer/-in</t>
@@ -81,6 +77,10 @@
   </si>
   <si>
     <t>Gewichteter Anteil</t>
+  </si>
+  <si>
+    <t>Schwierigkeitsgrad 
+(1-5)</t>
   </si>
 </sst>
 </file>
@@ -618,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,12 +631,12 @@
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -644,26 +644,26 @@
       <c r="E1" s="12">
         <v>45637</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,45 +674,45 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="18">
-        <f>SUM(G3:G1000)/SUM($G$3:$L$1000)</f>
+      <c r="G2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="18">
+        <f>SUM(H3:H1000)/SUM($H$3:$M$1000)</f>
         <v>1</v>
       </c>
-      <c r="H2" s="19">
-        <f>SUM(H3:H1000)/SUM($G$3:$L$1000)</f>
+      <c r="I2" s="19">
+        <f>SUM(I3:I1000)/SUM($H$3:$M$1000)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="19">
-        <f>SUM(I3:I1000)/SUM($G$3:$L$1000)</f>
+      <c r="J2" s="19">
+        <f>SUM(J3:J1000)/SUM($H$3:$M$1000)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="19">
-        <f>SUM(J3:J1000)/SUM($G$3:$L$1000)</f>
+      <c r="K2" s="19">
+        <f>SUM(K3:K1000)/SUM($H$3:$M$1000)</f>
         <v>0</v>
       </c>
-      <c r="K2" s="19">
-        <f>SUM(K3:K1000)/SUM($G$3:$L$1000)</f>
+      <c r="L2" s="19">
+        <f>SUM(L3:L1000)/SUM($H$3:$M$1000)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="20">
-        <f>SUM(L3:L1000)/SUM($G$3:$L$1000)</f>
+      <c r="M2" s="20">
+        <f>SUM(M3:M1000)/SUM($H$3:$M$1000)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5">
         <v>4</v>
@@ -721,15 +721,11 @@
         <v>1</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="4">
-        <f>IF($E3=G$1, $C3 * $D3, "")</f>
+        <v>9</v>
+      </c>
+      <c r="H3" s="4">
+        <f>IF($E3=H$1, $C3 * $D3, "")</f>
         <v>4</v>
-      </c>
-      <c r="H3" s="5" t="str">
-        <f>IF($E3=H$1, $C3 * $D3, "")</f>
-        <v/>
       </c>
       <c r="I3" s="5" t="str">
         <f>IF($E3=I$1, $C3 * $D3, "")</f>
@@ -743,17 +739,21 @@
         <f>IF($E3=K$1, $C3 * $D3, "")</f>
         <v/>
       </c>
-      <c r="L3" s="6" t="str">
+      <c r="L3" s="5" t="str">
         <f>IF($E3=L$1, $C3 * $D3, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="6" t="str">
+        <f>IF($E3=M$1, $C3 * $D3, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>14</v>
@@ -762,15 +762,11 @@
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="7">
-        <f>IF($E4=G$1, $C4 * $D4, "")</f>
+        <v>9</v>
+      </c>
+      <c r="H4" s="7">
+        <f>IF($E4=H$1, $C4 * $D4, "")</f>
         <v>14</v>
-      </c>
-      <c r="H4" s="21" t="str">
-        <f>IF($E4=H$1, $C4 * $D4, "")</f>
-        <v/>
       </c>
       <c r="I4" s="21" t="str">
         <f>IF($E4=I$1, $C4 * $D4, "")</f>
@@ -784,19 +780,19 @@
         <f>IF($E4=K$1, $C4 * $D4, "")</f>
         <v/>
       </c>
-      <c r="L4" s="8" t="str">
+      <c r="L4" s="21" t="str">
         <f>IF($E4=L$1, $C4 * $D4, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="8" t="str">
+        <f>IF($E4=M$1, $C4 * $D4, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="E5" s="8"/>
-      <c r="G5" s="7" t="str">
-        <f>IF($E5=G$1, $C5 * $D5, "")</f>
-        <v/>
-      </c>
-      <c r="H5" s="21" t="str">
+      <c r="H5" s="7" t="str">
         <f>IF($E5=H$1, $C5 * $D5, "")</f>
         <v/>
       </c>
@@ -812,19 +808,19 @@
         <f>IF($E5=K$1, $C5 * $D5, "")</f>
         <v/>
       </c>
-      <c r="L5" s="8" t="str">
+      <c r="L5" s="21" t="str">
         <f>IF($E5=L$1, $C5 * $D5, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="8" t="str">
+        <f>IF($E5=M$1, $C5 * $D5, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="E6" s="8"/>
-      <c r="G6" s="7" t="str">
-        <f>IF($E6=G$1, $C6 * $D6, "")</f>
-        <v/>
-      </c>
-      <c r="H6" s="21" t="str">
+      <c r="H6" s="7" t="str">
         <f>IF($E6=H$1, $C6 * $D6, "")</f>
         <v/>
       </c>
@@ -840,19 +836,19 @@
         <f>IF($E6=K$1, $C6 * $D6, "")</f>
         <v/>
       </c>
-      <c r="L6" s="8" t="str">
+      <c r="L6" s="21" t="str">
         <f>IF($E6=L$1, $C6 * $D6, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="8" t="str">
+        <f>IF($E6=M$1, $C6 * $D6, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="E7" s="8"/>
-      <c r="G7" s="7" t="str">
-        <f>IF($E7=G$1, $C7 * $D7, "")</f>
-        <v/>
-      </c>
-      <c r="H7" s="21" t="str">
+      <c r="H7" s="7" t="str">
         <f>IF($E7=H$1, $C7 * $D7, "")</f>
         <v/>
       </c>
@@ -868,19 +864,19 @@
         <f>IF($E7=K$1, $C7 * $D7, "")</f>
         <v/>
       </c>
-      <c r="L7" s="8" t="str">
+      <c r="L7" s="21" t="str">
         <f>IF($E7=L$1, $C7 * $D7, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="8" t="str">
+        <f>IF($E7=M$1, $C7 * $D7, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="E8" s="8"/>
-      <c r="G8" s="7" t="str">
-        <f>IF($E8=G$1, $C8 * $D8, "")</f>
-        <v/>
-      </c>
-      <c r="H8" s="21" t="str">
+      <c r="H8" s="7" t="str">
         <f>IF($E8=H$1, $C8 * $D8, "")</f>
         <v/>
       </c>
@@ -896,19 +892,19 @@
         <f>IF($E8=K$1, $C8 * $D8, "")</f>
         <v/>
       </c>
-      <c r="L8" s="8" t="str">
+      <c r="L8" s="21" t="str">
         <f>IF($E8=L$1, $C8 * $D8, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="8" t="str">
+        <f>IF($E8=M$1, $C8 * $D8, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="E9" s="8"/>
-      <c r="G9" s="7" t="str">
-        <f>IF($E9=G$1, $C9 * $D9, "")</f>
-        <v/>
-      </c>
-      <c r="H9" s="21" t="str">
+      <c r="H9" s="7" t="str">
         <f>IF($E9=H$1, $C9 * $D9, "")</f>
         <v/>
       </c>
@@ -924,29 +920,29 @@
         <f>IF($E9=K$1, $C9 * $D9, "")</f>
         <v/>
       </c>
-      <c r="L9" s="8" t="str">
+      <c r="L9" s="21" t="str">
         <f>IF($E9=L$1, $C9 * $D9, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="8" t="str">
+        <f>IF($E9=M$1, $C9 * $D9, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="E10" s="8"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="21"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
-      <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L10" s="21"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="E11" s="8"/>
-      <c r="G11" s="7" t="str">
-        <f>IF($E10=G$1, $C10 * $D10, "")</f>
-        <v/>
-      </c>
-      <c r="H11" s="21" t="str">
+      <c r="H11" s="7" t="str">
         <f>IF($E10=H$1, $C10 * $D10, "")</f>
         <v/>
       </c>
@@ -962,19 +958,19 @@
         <f>IF($E10=K$1, $C10 * $D10, "")</f>
         <v/>
       </c>
-      <c r="L11" s="8" t="str">
+      <c r="L11" s="21" t="str">
         <f>IF($E10=L$1, $C10 * $D10, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="8" t="str">
+        <f>IF($E10=M$1, $C10 * $D10, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="E12" s="8"/>
-      <c r="G12" s="7" t="str">
-        <f>IF($E11=G$1, $C11 * $D11, "")</f>
-        <v/>
-      </c>
-      <c r="H12" s="21" t="str">
+      <c r="H12" s="7" t="str">
         <f>IF($E11=H$1, $C11 * $D11, "")</f>
         <v/>
       </c>
@@ -990,19 +986,19 @@
         <f>IF($E11=K$1, $C11 * $D11, "")</f>
         <v/>
       </c>
-      <c r="L12" s="8" t="str">
+      <c r="L12" s="21" t="str">
         <f>IF($E11=L$1, $C11 * $D11, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="8" t="str">
+        <f>IF($E11=M$1, $C11 * $D11, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="E13" s="8"/>
-      <c r="G13" s="7" t="str">
-        <f>IF($E12=G$1, $C12 * $D12, "")</f>
-        <v/>
-      </c>
-      <c r="H13" s="21" t="str">
+      <c r="H13" s="7" t="str">
         <f>IF($E12=H$1, $C12 * $D12, "")</f>
         <v/>
       </c>
@@ -1018,19 +1014,19 @@
         <f>IF($E12=K$1, $C12 * $D12, "")</f>
         <v/>
       </c>
-      <c r="L13" s="8" t="str">
+      <c r="L13" s="21" t="str">
         <f>IF($E12=L$1, $C12 * $D12, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="8" t="str">
+        <f>IF($E12=M$1, $C12 * $D12, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="E14" s="8"/>
-      <c r="G14" s="7" t="str">
-        <f>IF($E13=G$1, $C13 * $D13, "")</f>
-        <v/>
-      </c>
-      <c r="H14" s="21" t="str">
+      <c r="H14" s="7" t="str">
         <f>IF($E13=H$1, $C13 * $D13, "")</f>
         <v/>
       </c>
@@ -1046,19 +1042,19 @@
         <f>IF($E13=K$1, $C13 * $D13, "")</f>
         <v/>
       </c>
-      <c r="L14" s="8" t="str">
+      <c r="L14" s="21" t="str">
         <f>IF($E13=L$1, $C13 * $D13, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="8" t="str">
+        <f>IF($E13=M$1, $C13 * $D13, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="E15" s="8"/>
-      <c r="G15" s="7" t="str">
-        <f>IF($E14=G$1, $C14 * $D14, "")</f>
-        <v/>
-      </c>
-      <c r="H15" s="21" t="str">
+      <c r="H15" s="7" t="str">
         <f>IF($E14=H$1, $C14 * $D14, "")</f>
         <v/>
       </c>
@@ -1074,19 +1070,19 @@
         <f>IF($E14=K$1, $C14 * $D14, "")</f>
         <v/>
       </c>
-      <c r="L15" s="8" t="str">
+      <c r="L15" s="21" t="str">
         <f>IF($E14=L$1, $C14 * $D14, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="8" t="str">
+        <f>IF($E14=M$1, $C14 * $D14, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="E16" s="8"/>
-      <c r="G16" s="7" t="str">
-        <f>IF($E15=G$1, $C15 * $D15, "")</f>
-        <v/>
-      </c>
-      <c r="H16" s="21" t="str">
+      <c r="H16" s="7" t="str">
         <f>IF($E15=H$1, $C15 * $D15, "")</f>
         <v/>
       </c>
@@ -1102,19 +1098,19 @@
         <f>IF($E15=K$1, $C15 * $D15, "")</f>
         <v/>
       </c>
-      <c r="L16" s="8" t="str">
+      <c r="L16" s="21" t="str">
         <f>IF($E15=L$1, $C15 * $D15, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="8" t="str">
+        <f>IF($E15=M$1, $C15 * $D15, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="E17" s="8"/>
-      <c r="G17" s="7" t="str">
-        <f>IF($E16=G$1, $C16 * $D16, "")</f>
-        <v/>
-      </c>
-      <c r="H17" s="21" t="str">
+      <c r="H17" s="7" t="str">
         <f>IF($E16=H$1, $C16 * $D16, "")</f>
         <v/>
       </c>
@@ -1130,19 +1126,19 @@
         <f>IF($E16=K$1, $C16 * $D16, "")</f>
         <v/>
       </c>
-      <c r="L17" s="8" t="str">
+      <c r="L17" s="21" t="str">
         <f>IF($E16=L$1, $C16 * $D16, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="8" t="str">
+        <f>IF($E16=M$1, $C16 * $D16, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="E18" s="8"/>
-      <c r="G18" s="7" t="str">
-        <f>IF($E17=G$1, $C17 * $D17, "")</f>
-        <v/>
-      </c>
-      <c r="H18" s="21" t="str">
+      <c r="H18" s="7" t="str">
         <f>IF($E17=H$1, $C17 * $D17, "")</f>
         <v/>
       </c>
@@ -1158,19 +1154,19 @@
         <f>IF($E17=K$1, $C17 * $D17, "")</f>
         <v/>
       </c>
-      <c r="L18" s="8" t="str">
+      <c r="L18" s="21" t="str">
         <f>IF($E17=L$1, $C17 * $D17, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="8" t="str">
+        <f>IF($E17=M$1, $C17 * $D17, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="E19" s="8"/>
-      <c r="G19" s="7" t="str">
-        <f>IF($E18=G$1, $C18 * $D18, "")</f>
-        <v/>
-      </c>
-      <c r="H19" s="21" t="str">
+      <c r="H19" s="7" t="str">
         <f>IF($E18=H$1, $C18 * $D18, "")</f>
         <v/>
       </c>
@@ -1186,19 +1182,19 @@
         <f>IF($E18=K$1, $C18 * $D18, "")</f>
         <v/>
       </c>
-      <c r="L19" s="8" t="str">
+      <c r="L19" s="21" t="str">
         <f>IF($E18=L$1, $C18 * $D18, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="8" t="str">
+        <f>IF($E18=M$1, $C18 * $D18, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="E20" s="8"/>
-      <c r="G20" s="7" t="str">
-        <f>IF($E19=G$1, $C19 * $D19, "")</f>
-        <v/>
-      </c>
-      <c r="H20" s="21" t="str">
+      <c r="H20" s="7" t="str">
         <f>IF($E19=H$1, $C19 * $D19, "")</f>
         <v/>
       </c>
@@ -1214,19 +1210,19 @@
         <f>IF($E19=K$1, $C19 * $D19, "")</f>
         <v/>
       </c>
-      <c r="L20" s="8" t="str">
+      <c r="L20" s="21" t="str">
         <f>IF($E19=L$1, $C19 * $D19, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="8" t="str">
+        <f>IF($E19=M$1, $C19 * $D19, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="E21" s="8"/>
-      <c r="G21" s="7" t="str">
-        <f>IF($E20=G$1, $C20 * $D20, "")</f>
-        <v/>
-      </c>
-      <c r="H21" s="21" t="str">
+      <c r="H21" s="7" t="str">
         <f>IF($E20=H$1, $C20 * $D20, "")</f>
         <v/>
       </c>
@@ -1242,19 +1238,19 @@
         <f>IF($E20=K$1, $C20 * $D20, "")</f>
         <v/>
       </c>
-      <c r="L21" s="8" t="str">
+      <c r="L21" s="21" t="str">
         <f>IF($E20=L$1, $C20 * $D20, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="8" t="str">
+        <f>IF($E20=M$1, $C20 * $D20, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="E22" s="8"/>
-      <c r="G22" s="7" t="str">
-        <f>IF($E21=G$1, $C21 * $D21, "")</f>
-        <v/>
-      </c>
-      <c r="H22" s="21" t="str">
+      <c r="H22" s="7" t="str">
         <f>IF($E21=H$1, $C21 * $D21, "")</f>
         <v/>
       </c>
@@ -1270,19 +1266,19 @@
         <f>IF($E21=K$1, $C21 * $D21, "")</f>
         <v/>
       </c>
-      <c r="L22" s="8" t="str">
+      <c r="L22" s="21" t="str">
         <f>IF($E21=L$1, $C21 * $D21, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="8" t="str">
+        <f>IF($E21=M$1, $C21 * $D21, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="E23" s="8"/>
-      <c r="G23" s="7" t="str">
-        <f>IF($E22=G$1, $C22 * $D22, "")</f>
-        <v/>
-      </c>
-      <c r="H23" s="21" t="str">
+      <c r="H23" s="7" t="str">
         <f>IF($E22=H$1, $C22 * $D22, "")</f>
         <v/>
       </c>
@@ -1298,19 +1294,19 @@
         <f>IF($E22=K$1, $C22 * $D22, "")</f>
         <v/>
       </c>
-      <c r="L23" s="8" t="str">
+      <c r="L23" s="21" t="str">
         <f>IF($E22=L$1, $C22 * $D22, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" s="8" t="str">
+        <f>IF($E22=M$1, $C22 * $D22, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="E24" s="8"/>
-      <c r="G24" s="7" t="str">
-        <f>IF($E23=G$1, $C23 * $D23, "")</f>
-        <v/>
-      </c>
-      <c r="H24" s="21" t="str">
+      <c r="H24" s="7" t="str">
         <f>IF($E23=H$1, $C23 * $D23, "")</f>
         <v/>
       </c>
@@ -1326,19 +1322,19 @@
         <f>IF($E23=K$1, $C23 * $D23, "")</f>
         <v/>
       </c>
-      <c r="L24" s="8" t="str">
+      <c r="L24" s="21" t="str">
         <f>IF($E23=L$1, $C23 * $D23, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" s="8" t="str">
+        <f>IF($E23=M$1, $C23 * $D23, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="E25" s="8"/>
-      <c r="G25" s="7" t="str">
-        <f>IF($E24=G$1, $C24 * $D24, "")</f>
-        <v/>
-      </c>
-      <c r="H25" s="21" t="str">
+      <c r="H25" s="7" t="str">
         <f>IF($E24=H$1, $C24 * $D24, "")</f>
         <v/>
       </c>
@@ -1354,19 +1350,19 @@
         <f>IF($E24=K$1, $C24 * $D24, "")</f>
         <v/>
       </c>
-      <c r="L25" s="8" t="str">
+      <c r="L25" s="21" t="str">
         <f>IF($E24=L$1, $C24 * $D24, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" s="8" t="str">
+        <f>IF($E24=M$1, $C24 * $D24, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="E26" s="8"/>
-      <c r="G26" s="7" t="str">
-        <f>IF($E25=G$1, $C25 * $D25, "")</f>
-        <v/>
-      </c>
-      <c r="H26" s="21" t="str">
+      <c r="H26" s="7" t="str">
         <f>IF($E25=H$1, $C25 * $D25, "")</f>
         <v/>
       </c>
@@ -1382,19 +1378,19 @@
         <f>IF($E25=K$1, $C25 * $D25, "")</f>
         <v/>
       </c>
-      <c r="L26" s="8" t="str">
+      <c r="L26" s="21" t="str">
         <f>IF($E25=L$1, $C25 * $D25, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="8" t="str">
+        <f>IF($E25=M$1, $C25 * $D25, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="E27" s="8"/>
-      <c r="G27" s="7" t="str">
-        <f>IF($E26=G$1, $C26 * $D26, "")</f>
-        <v/>
-      </c>
-      <c r="H27" s="21" t="str">
+      <c r="H27" s="7" t="str">
         <f>IF($E26=H$1, $C26 * $D26, "")</f>
         <v/>
       </c>
@@ -1410,19 +1406,19 @@
         <f>IF($E26=K$1, $C26 * $D26, "")</f>
         <v/>
       </c>
-      <c r="L27" s="8" t="str">
+      <c r="L27" s="21" t="str">
         <f>IF($E26=L$1, $C26 * $D26, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="8" t="str">
+        <f>IF($E26=M$1, $C26 * $D26, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="E28" s="8"/>
-      <c r="G28" s="7" t="str">
-        <f>IF($E27=G$1, $C27 * $D27, "")</f>
-        <v/>
-      </c>
-      <c r="H28" s="21" t="str">
+      <c r="H28" s="7" t="str">
         <f>IF($E27=H$1, $C27 * $D27, "")</f>
         <v/>
       </c>
@@ -1438,19 +1434,19 @@
         <f>IF($E27=K$1, $C27 * $D27, "")</f>
         <v/>
       </c>
-      <c r="L28" s="8" t="str">
+      <c r="L28" s="21" t="str">
         <f>IF($E27=L$1, $C27 * $D27, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" s="8" t="str">
+        <f>IF($E27=M$1, $C27 * $D27, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="E29" s="8"/>
-      <c r="G29" s="7" t="str">
-        <f>IF($E28=G$1, $C28 * $D28, "")</f>
-        <v/>
-      </c>
-      <c r="H29" s="21" t="str">
+      <c r="H29" s="7" t="str">
         <f>IF($E28=H$1, $C28 * $D28, "")</f>
         <v/>
       </c>
@@ -1466,19 +1462,19 @@
         <f>IF($E28=K$1, $C28 * $D28, "")</f>
         <v/>
       </c>
-      <c r="L29" s="8" t="str">
+      <c r="L29" s="21" t="str">
         <f>IF($E28=L$1, $C28 * $D28, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" s="8" t="str">
+        <f>IF($E28=M$1, $C28 * $D28, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="E30" s="8"/>
-      <c r="G30" s="7" t="str">
-        <f>IF($E29=G$1, $C29 * $D29, "")</f>
-        <v/>
-      </c>
-      <c r="H30" s="21" t="str">
+      <c r="H30" s="7" t="str">
         <f>IF($E29=H$1, $C29 * $D29, "")</f>
         <v/>
       </c>
@@ -1494,19 +1490,19 @@
         <f>IF($E29=K$1, $C29 * $D29, "")</f>
         <v/>
       </c>
-      <c r="L30" s="8" t="str">
+      <c r="L30" s="21" t="str">
         <f>IF($E29=L$1, $C29 * $D29, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" s="8" t="str">
+        <f>IF($E29=M$1, $C29 * $D29, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="E31" s="8"/>
-      <c r="G31" s="7" t="str">
-        <f>IF($E30=G$1, $C30 * $D30, "")</f>
-        <v/>
-      </c>
-      <c r="H31" s="21" t="str">
+      <c r="H31" s="7" t="str">
         <f>IF($E30=H$1, $C30 * $D30, "")</f>
         <v/>
       </c>
@@ -1522,19 +1518,19 @@
         <f>IF($E30=K$1, $C30 * $D30, "")</f>
         <v/>
       </c>
-      <c r="L31" s="8" t="str">
+      <c r="L31" s="21" t="str">
         <f>IF($E30=L$1, $C30 * $D30, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" s="8" t="str">
+        <f>IF($E30=M$1, $C30 * $D30, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="E32" s="8"/>
-      <c r="G32" s="7" t="str">
-        <f>IF($E31=G$1, $C31 * $D31, "")</f>
-        <v/>
-      </c>
-      <c r="H32" s="21" t="str">
+      <c r="H32" s="7" t="str">
         <f>IF($E31=H$1, $C31 * $D31, "")</f>
         <v/>
       </c>
@@ -1550,19 +1546,19 @@
         <f>IF($E31=K$1, $C31 * $D31, "")</f>
         <v/>
       </c>
-      <c r="L32" s="8" t="str">
+      <c r="L32" s="21" t="str">
         <f>IF($E31=L$1, $C31 * $D31, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" s="8" t="str">
+        <f>IF($E31=M$1, $C31 * $D31, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="E33" s="8"/>
-      <c r="G33" s="7" t="str">
-        <f>IF($E32=G$1, $C32 * $D32, "")</f>
-        <v/>
-      </c>
-      <c r="H33" s="21" t="str">
+      <c r="H33" s="7" t="str">
         <f>IF($E32=H$1, $C32 * $D32, "")</f>
         <v/>
       </c>
@@ -1578,19 +1574,19 @@
         <f>IF($E32=K$1, $C32 * $D32, "")</f>
         <v/>
       </c>
-      <c r="L33" s="8" t="str">
+      <c r="L33" s="21" t="str">
         <f>IF($E32=L$1, $C32 * $D32, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" s="8" t="str">
+        <f>IF($E32=M$1, $C32 * $D32, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="E34" s="8"/>
-      <c r="G34" s="7" t="str">
-        <f>IF($E33=G$1, $C33 * $D33, "")</f>
-        <v/>
-      </c>
-      <c r="H34" s="21" t="str">
+      <c r="H34" s="7" t="str">
         <f>IF($E33=H$1, $C33 * $D33, "")</f>
         <v/>
       </c>
@@ -1606,19 +1602,19 @@
         <f>IF($E33=K$1, $C33 * $D33, "")</f>
         <v/>
       </c>
-      <c r="L34" s="8" t="str">
+      <c r="L34" s="21" t="str">
         <f>IF($E33=L$1, $C33 * $D33, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34" s="8" t="str">
+        <f>IF($E33=M$1, $C33 * $D33, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="E35" s="8"/>
-      <c r="G35" s="7" t="str">
-        <f>IF($E34=G$1, $C34 * $D34, "")</f>
-        <v/>
-      </c>
-      <c r="H35" s="21" t="str">
+      <c r="H35" s="7" t="str">
         <f>IF($E34=H$1, $C34 * $D34, "")</f>
         <v/>
       </c>
@@ -1634,19 +1630,19 @@
         <f>IF($E34=K$1, $C34 * $D34, "")</f>
         <v/>
       </c>
-      <c r="L35" s="8" t="str">
+      <c r="L35" s="21" t="str">
         <f>IF($E34=L$1, $C34 * $D34, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35" s="8" t="str">
+        <f>IF($E34=M$1, $C34 * $D34, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="E36" s="8"/>
-      <c r="G36" s="7" t="str">
-        <f>IF($E35=G$1, $C35 * $D35, "")</f>
-        <v/>
-      </c>
-      <c r="H36" s="21" t="str">
+      <c r="H36" s="7" t="str">
         <f>IF($E35=H$1, $C35 * $D35, "")</f>
         <v/>
       </c>
@@ -1662,19 +1658,19 @@
         <f>IF($E35=K$1, $C35 * $D35, "")</f>
         <v/>
       </c>
-      <c r="L36" s="8" t="str">
+      <c r="L36" s="21" t="str">
         <f>IF($E35=L$1, $C35 * $D35, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36" s="8" t="str">
+        <f>IF($E35=M$1, $C35 * $D35, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="E37" s="8"/>
-      <c r="G37" s="7" t="str">
-        <f>IF($E36=G$1, $C36 * $D36, "")</f>
-        <v/>
-      </c>
-      <c r="H37" s="21" t="str">
+      <c r="H37" s="7" t="str">
         <f>IF($E36=H$1, $C36 * $D36, "")</f>
         <v/>
       </c>
@@ -1690,19 +1686,19 @@
         <f>IF($E36=K$1, $C36 * $D36, "")</f>
         <v/>
       </c>
-      <c r="L37" s="8" t="str">
+      <c r="L37" s="21" t="str">
         <f>IF($E36=L$1, $C36 * $D36, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37" s="8" t="str">
+        <f>IF($E36=M$1, $C36 * $D36, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="E38" s="8"/>
-      <c r="G38" s="7" t="str">
-        <f>IF($E37=G$1, $C37 * $D37, "")</f>
-        <v/>
-      </c>
-      <c r="H38" s="21" t="str">
+      <c r="H38" s="7" t="str">
         <f>IF($E37=H$1, $C37 * $D37, "")</f>
         <v/>
       </c>
@@ -1718,19 +1714,19 @@
         <f>IF($E37=K$1, $C37 * $D37, "")</f>
         <v/>
       </c>
-      <c r="L38" s="8" t="str">
+      <c r="L38" s="21" t="str">
         <f>IF($E37=L$1, $C37 * $D37, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38" s="8" t="str">
+        <f>IF($E37=M$1, $C37 * $D37, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="E39" s="8"/>
-      <c r="G39" s="7" t="str">
-        <f>IF($E38=G$1, $C38 * $D38, "")</f>
-        <v/>
-      </c>
-      <c r="H39" s="21" t="str">
+      <c r="H39" s="7" t="str">
         <f>IF($E38=H$1, $C38 * $D38, "")</f>
         <v/>
       </c>
@@ -1746,19 +1742,19 @@
         <f>IF($E38=K$1, $C38 * $D38, "")</f>
         <v/>
       </c>
-      <c r="L39" s="8" t="str">
+      <c r="L39" s="21" t="str">
         <f>IF($E38=L$1, $C38 * $D38, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39" s="8" t="str">
+        <f>IF($E38=M$1, $C38 * $D38, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="E40" s="8"/>
-      <c r="G40" s="7" t="str">
-        <f>IF($E39=G$1, $C39 * $D39, "")</f>
-        <v/>
-      </c>
-      <c r="H40" s="21" t="str">
+      <c r="H40" s="7" t="str">
         <f>IF($E39=H$1, $C39 * $D39, "")</f>
         <v/>
       </c>
@@ -1774,19 +1770,19 @@
         <f>IF($E39=K$1, $C39 * $D39, "")</f>
         <v/>
       </c>
-      <c r="L40" s="8" t="str">
+      <c r="L40" s="21" t="str">
         <f>IF($E39=L$1, $C39 * $D39, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40" s="8" t="str">
+        <f>IF($E39=M$1, $C39 * $D39, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="E41" s="8"/>
-      <c r="G41" s="7" t="str">
-        <f>IF($E40=G$1, $C40 * $D40, "")</f>
-        <v/>
-      </c>
-      <c r="H41" s="21" t="str">
+      <c r="H41" s="7" t="str">
         <f>IF($E40=H$1, $C40 * $D40, "")</f>
         <v/>
       </c>
@@ -1802,19 +1798,19 @@
         <f>IF($E40=K$1, $C40 * $D40, "")</f>
         <v/>
       </c>
-      <c r="L41" s="8" t="str">
+      <c r="L41" s="21" t="str">
         <f>IF($E40=L$1, $C40 * $D40, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41" s="8" t="str">
+        <f>IF($E40=M$1, $C40 * $D40, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="E42" s="8"/>
-      <c r="G42" s="7" t="str">
-        <f>IF($E41=G$1, $C41 * $D41, "")</f>
-        <v/>
-      </c>
-      <c r="H42" s="21" t="str">
+      <c r="H42" s="7" t="str">
         <f>IF($E41=H$1, $C41 * $D41, "")</f>
         <v/>
       </c>
@@ -1830,19 +1826,19 @@
         <f>IF($E41=K$1, $C41 * $D41, "")</f>
         <v/>
       </c>
-      <c r="L42" s="8" t="str">
+      <c r="L42" s="21" t="str">
         <f>IF($E41=L$1, $C41 * $D41, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42" s="8" t="str">
+        <f>IF($E41=M$1, $C41 * $D41, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="E43" s="8"/>
-      <c r="G43" s="7" t="str">
-        <f>IF($E42=G$1, $C42 * $D42, "")</f>
-        <v/>
-      </c>
-      <c r="H43" s="21" t="str">
+      <c r="H43" s="7" t="str">
         <f>IF($E42=H$1, $C42 * $D42, "")</f>
         <v/>
       </c>
@@ -1858,19 +1854,19 @@
         <f>IF($E42=K$1, $C42 * $D42, "")</f>
         <v/>
       </c>
-      <c r="L43" s="8" t="str">
+      <c r="L43" s="21" t="str">
         <f>IF($E42=L$1, $C42 * $D42, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43" s="8" t="str">
+        <f>IF($E42=M$1, $C42 * $D42, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="E44" s="8"/>
-      <c r="G44" s="7" t="str">
-        <f>IF($E43=G$1, $C43 * $D43, "")</f>
-        <v/>
-      </c>
-      <c r="H44" s="21" t="str">
+      <c r="H44" s="7" t="str">
         <f>IF($E43=H$1, $C43 * $D43, "")</f>
         <v/>
       </c>
@@ -1886,19 +1882,19 @@
         <f>IF($E43=K$1, $C43 * $D43, "")</f>
         <v/>
       </c>
-      <c r="L44" s="8" t="str">
+      <c r="L44" s="21" t="str">
         <f>IF($E43=L$1, $C43 * $D43, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44" s="8" t="str">
+        <f>IF($E43=M$1, $C43 * $D43, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="E45" s="8"/>
-      <c r="G45" s="7" t="str">
-        <f>IF($E44=G$1, $C44 * $D44, "")</f>
-        <v/>
-      </c>
-      <c r="H45" s="21" t="str">
+      <c r="H45" s="7" t="str">
         <f>IF($E44=H$1, $C44 * $D44, "")</f>
         <v/>
       </c>
@@ -1914,19 +1910,19 @@
         <f>IF($E44=K$1, $C44 * $D44, "")</f>
         <v/>
       </c>
-      <c r="L45" s="8" t="str">
+      <c r="L45" s="21" t="str">
         <f>IF($E44=L$1, $C44 * $D44, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45" s="8" t="str">
+        <f>IF($E44=M$1, $C44 * $D44, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="E46" s="8"/>
-      <c r="G46" s="7" t="str">
-        <f>IF($E45=G$1, $C45 * $D45, "")</f>
-        <v/>
-      </c>
-      <c r="H46" s="21" t="str">
+      <c r="H46" s="7" t="str">
         <f>IF($E45=H$1, $C45 * $D45, "")</f>
         <v/>
       </c>
@@ -1942,19 +1938,19 @@
         <f>IF($E45=K$1, $C45 * $D45, "")</f>
         <v/>
       </c>
-      <c r="L46" s="8" t="str">
+      <c r="L46" s="21" t="str">
         <f>IF($E45=L$1, $C45 * $D45, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46" s="8" t="str">
+        <f>IF($E45=M$1, $C45 * $D45, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="E47" s="8"/>
-      <c r="G47" s="7" t="str">
-        <f>IF($E46=G$1, $C46 * $D46, "")</f>
-        <v/>
-      </c>
-      <c r="H47" s="21" t="str">
+      <c r="H47" s="7" t="str">
         <f>IF($E46=H$1, $C46 * $D46, "")</f>
         <v/>
       </c>
@@ -1970,19 +1966,19 @@
         <f>IF($E46=K$1, $C46 * $D46, "")</f>
         <v/>
       </c>
-      <c r="L47" s="8" t="str">
+      <c r="L47" s="21" t="str">
         <f>IF($E46=L$1, $C46 * $D46, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47" s="8" t="str">
+        <f>IF($E46=M$1, $C46 * $D46, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="E48" s="8"/>
-      <c r="G48" s="7" t="str">
-        <f>IF($E47=G$1, $C47 * $D47, "")</f>
-        <v/>
-      </c>
-      <c r="H48" s="21" t="str">
+      <c r="H48" s="7" t="str">
         <f>IF($E47=H$1, $C47 * $D47, "")</f>
         <v/>
       </c>
@@ -1998,19 +1994,19 @@
         <f>IF($E47=K$1, $C47 * $D47, "")</f>
         <v/>
       </c>
-      <c r="L48" s="8" t="str">
+      <c r="L48" s="21" t="str">
         <f>IF($E47=L$1, $C47 * $D47, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48" s="8" t="str">
+        <f>IF($E47=M$1, $C47 * $D47, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="E49" s="8"/>
-      <c r="G49" s="7" t="str">
-        <f>IF($E48=G$1, $C48 * $D48, "")</f>
-        <v/>
-      </c>
-      <c r="H49" s="21" t="str">
+      <c r="H49" s="7" t="str">
         <f>IF($E48=H$1, $C48 * $D48, "")</f>
         <v/>
       </c>
@@ -2026,19 +2022,19 @@
         <f>IF($E48=K$1, $C48 * $D48, "")</f>
         <v/>
       </c>
-      <c r="L49" s="8" t="str">
+      <c r="L49" s="21" t="str">
         <f>IF($E48=L$1, $C48 * $D48, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49" s="8" t="str">
+        <f>IF($E48=M$1, $C48 * $D48, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="E50" s="8"/>
-      <c r="G50" s="7" t="str">
-        <f>IF($E49=G$1, $C49 * $D49, "")</f>
-        <v/>
-      </c>
-      <c r="H50" s="21" t="str">
+      <c r="H50" s="7" t="str">
         <f>IF($E49=H$1, $C49 * $D49, "")</f>
         <v/>
       </c>
@@ -2054,19 +2050,19 @@
         <f>IF($E49=K$1, $C49 * $D49, "")</f>
         <v/>
       </c>
-      <c r="L50" s="8" t="str">
+      <c r="L50" s="21" t="str">
         <f>IF($E49=L$1, $C49 * $D49, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50" s="8" t="str">
+        <f>IF($E49=M$1, $C49 * $D49, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="E51" s="8"/>
-      <c r="G51" s="7" t="str">
-        <f>IF($E50=G$1, $C50 * $D50, "")</f>
-        <v/>
-      </c>
-      <c r="H51" s="21" t="str">
+      <c r="H51" s="7" t="str">
         <f>IF($E50=H$1, $C50 * $D50, "")</f>
         <v/>
       </c>
@@ -2082,19 +2078,19 @@
         <f>IF($E50=K$1, $C50 * $D50, "")</f>
         <v/>
       </c>
-      <c r="L51" s="8" t="str">
+      <c r="L51" s="21" t="str">
         <f>IF($E50=L$1, $C50 * $D50, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51" s="8" t="str">
+        <f>IF($E50=M$1, $C50 * $D50, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="E52" s="8"/>
-      <c r="G52" s="7" t="str">
-        <f>IF($E51=G$1, $C51 * $D51, "")</f>
-        <v/>
-      </c>
-      <c r="H52" s="21" t="str">
+      <c r="H52" s="7" t="str">
         <f>IF($E51=H$1, $C51 * $D51, "")</f>
         <v/>
       </c>
@@ -2110,19 +2106,19 @@
         <f>IF($E51=K$1, $C51 * $D51, "")</f>
         <v/>
       </c>
-      <c r="L52" s="8" t="str">
+      <c r="L52" s="21" t="str">
         <f>IF($E51=L$1, $C51 * $D51, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52" s="8" t="str">
+        <f>IF($E51=M$1, $C51 * $D51, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="E53" s="8"/>
-      <c r="G53" s="7" t="str">
-        <f>IF($E52=G$1, $C52 * $D52, "")</f>
-        <v/>
-      </c>
-      <c r="H53" s="21" t="str">
+      <c r="H53" s="7" t="str">
         <f>IF($E52=H$1, $C52 * $D52, "")</f>
         <v/>
       </c>
@@ -2138,19 +2134,19 @@
         <f>IF($E52=K$1, $C52 * $D52, "")</f>
         <v/>
       </c>
-      <c r="L53" s="8" t="str">
+      <c r="L53" s="21" t="str">
         <f>IF($E52=L$1, $C52 * $D52, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53" s="8" t="str">
+        <f>IF($E52=M$1, $C52 * $D52, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="E54" s="8"/>
-      <c r="G54" s="7" t="str">
-        <f>IF($E53=G$1, $C53 * $D53, "")</f>
-        <v/>
-      </c>
-      <c r="H54" s="21" t="str">
+      <c r="H54" s="7" t="str">
         <f>IF($E53=H$1, $C53 * $D53, "")</f>
         <v/>
       </c>
@@ -2166,19 +2162,19 @@
         <f>IF($E53=K$1, $C53 * $D53, "")</f>
         <v/>
       </c>
-      <c r="L54" s="8" t="str">
+      <c r="L54" s="21" t="str">
         <f>IF($E53=L$1, $C53 * $D53, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54" s="8" t="str">
+        <f>IF($E53=M$1, $C53 * $D53, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="E55" s="8"/>
-      <c r="G55" s="7" t="str">
-        <f>IF($E54=G$1, $C54 * $D54, "")</f>
-        <v/>
-      </c>
-      <c r="H55" s="21" t="str">
+      <c r="H55" s="7" t="str">
         <f>IF($E54=H$1, $C54 * $D54, "")</f>
         <v/>
       </c>
@@ -2194,19 +2190,19 @@
         <f>IF($E54=K$1, $C54 * $D54, "")</f>
         <v/>
       </c>
-      <c r="L55" s="8" t="str">
+      <c r="L55" s="21" t="str">
         <f>IF($E54=L$1, $C54 * $D54, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55" s="8" t="str">
+        <f>IF($E54=M$1, $C54 * $D54, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="E56" s="8"/>
-      <c r="G56" s="7" t="str">
-        <f>IF($E55=G$1, $C55 * $D55, "")</f>
-        <v/>
-      </c>
-      <c r="H56" s="21" t="str">
+      <c r="H56" s="7" t="str">
         <f>IF($E55=H$1, $C55 * $D55, "")</f>
         <v/>
       </c>
@@ -2222,19 +2218,19 @@
         <f>IF($E55=K$1, $C55 * $D55, "")</f>
         <v/>
       </c>
-      <c r="L56" s="8" t="str">
+      <c r="L56" s="21" t="str">
         <f>IF($E55=L$1, $C55 * $D55, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56" s="8" t="str">
+        <f>IF($E55=M$1, $C55 * $D55, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="E57" s="8"/>
-      <c r="G57" s="7" t="str">
-        <f>IF($E56=G$1, $C56 * $D56, "")</f>
-        <v/>
-      </c>
-      <c r="H57" s="21" t="str">
+      <c r="H57" s="7" t="str">
         <f>IF($E56=H$1, $C56 * $D56, "")</f>
         <v/>
       </c>
@@ -2250,19 +2246,19 @@
         <f>IF($E56=K$1, $C56 * $D56, "")</f>
         <v/>
       </c>
-      <c r="L57" s="8" t="str">
+      <c r="L57" s="21" t="str">
         <f>IF($E56=L$1, $C56 * $D56, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57" s="8" t="str">
+        <f>IF($E56=M$1, $C56 * $D56, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="E58" s="8"/>
-      <c r="G58" s="7" t="str">
-        <f>IF($E57=G$1, $C57 * $D57, "")</f>
-        <v/>
-      </c>
-      <c r="H58" s="21" t="str">
+      <c r="H58" s="7" t="str">
         <f>IF($E57=H$1, $C57 * $D57, "")</f>
         <v/>
       </c>
@@ -2278,19 +2274,19 @@
         <f>IF($E57=K$1, $C57 * $D57, "")</f>
         <v/>
       </c>
-      <c r="L58" s="8" t="str">
+      <c r="L58" s="21" t="str">
         <f>IF($E57=L$1, $C57 * $D57, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58" s="8" t="str">
+        <f>IF($E57=M$1, $C57 * $D57, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="E59" s="8"/>
-      <c r="G59" s="7" t="str">
-        <f>IF($E58=G$1, $C58 * $D58, "")</f>
-        <v/>
-      </c>
-      <c r="H59" s="21" t="str">
+      <c r="H59" s="7" t="str">
         <f>IF($E58=H$1, $C58 * $D58, "")</f>
         <v/>
       </c>
@@ -2306,19 +2302,19 @@
         <f>IF($E58=K$1, $C58 * $D58, "")</f>
         <v/>
       </c>
-      <c r="L59" s="8" t="str">
+      <c r="L59" s="21" t="str">
         <f>IF($E58=L$1, $C58 * $D58, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59" s="8" t="str">
+        <f>IF($E58=M$1, $C58 * $D58, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="E60" s="8"/>
-      <c r="G60" s="7" t="str">
-        <f>IF($E59=G$1, $C59 * $D59, "")</f>
-        <v/>
-      </c>
-      <c r="H60" s="21" t="str">
+      <c r="H60" s="7" t="str">
         <f>IF($E59=H$1, $C59 * $D59, "")</f>
         <v/>
       </c>
@@ -2334,19 +2330,19 @@
         <f>IF($E59=K$1, $C59 * $D59, "")</f>
         <v/>
       </c>
-      <c r="L60" s="8" t="str">
+      <c r="L60" s="21" t="str">
         <f>IF($E59=L$1, $C59 * $D59, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60" s="8" t="str">
+        <f>IF($E59=M$1, $C59 * $D59, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="E61" s="8"/>
-      <c r="G61" s="7" t="str">
-        <f>IF($E60=G$1, $C60 * $D60, "")</f>
-        <v/>
-      </c>
-      <c r="H61" s="21" t="str">
+      <c r="H61" s="7" t="str">
         <f>IF($E60=H$1, $C60 * $D60, "")</f>
         <v/>
       </c>
@@ -2362,19 +2358,19 @@
         <f>IF($E60=K$1, $C60 * $D60, "")</f>
         <v/>
       </c>
-      <c r="L61" s="8" t="str">
+      <c r="L61" s="21" t="str">
         <f>IF($E60=L$1, $C60 * $D60, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61" s="8" t="str">
+        <f>IF($E60=M$1, $C60 * $D60, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="E62" s="8"/>
-      <c r="G62" s="7" t="str">
-        <f>IF($E61=G$1, $C61 * $D61, "")</f>
-        <v/>
-      </c>
-      <c r="H62" s="21" t="str">
+      <c r="H62" s="7" t="str">
         <f>IF($E61=H$1, $C61 * $D61, "")</f>
         <v/>
       </c>
@@ -2390,19 +2386,19 @@
         <f>IF($E61=K$1, $C61 * $D61, "")</f>
         <v/>
       </c>
-      <c r="L62" s="8" t="str">
+      <c r="L62" s="21" t="str">
         <f>IF($E61=L$1, $C61 * $D61, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62" s="8" t="str">
+        <f>IF($E61=M$1, $C61 * $D61, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="E63" s="8"/>
-      <c r="G63" s="7" t="str">
-        <f>IF($E62=G$1, $C62 * $D62, "")</f>
-        <v/>
-      </c>
-      <c r="H63" s="21" t="str">
+      <c r="H63" s="7" t="str">
         <f>IF($E62=H$1, $C62 * $D62, "")</f>
         <v/>
       </c>
@@ -2418,19 +2414,19 @@
         <f>IF($E62=K$1, $C62 * $D62, "")</f>
         <v/>
       </c>
-      <c r="L63" s="8" t="str">
+      <c r="L63" s="21" t="str">
         <f>IF($E62=L$1, $C62 * $D62, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63" s="8" t="str">
+        <f>IF($E62=M$1, $C62 * $D62, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="E64" s="8"/>
-      <c r="G64" s="7" t="str">
-        <f>IF($E63=G$1, $C63 * $D63, "")</f>
-        <v/>
-      </c>
-      <c r="H64" s="21" t="str">
+      <c r="H64" s="7" t="str">
         <f>IF($E63=H$1, $C63 * $D63, "")</f>
         <v/>
       </c>
@@ -2446,19 +2442,19 @@
         <f>IF($E63=K$1, $C63 * $D63, "")</f>
         <v/>
       </c>
-      <c r="L64" s="8" t="str">
+      <c r="L64" s="21" t="str">
         <f>IF($E63=L$1, $C63 * $D63, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64" s="8" t="str">
+        <f>IF($E63=M$1, $C63 * $D63, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="E65" s="8"/>
-      <c r="G65" s="7" t="str">
-        <f>IF($E64=G$1, $C64 * $D64, "")</f>
-        <v/>
-      </c>
-      <c r="H65" s="21" t="str">
+      <c r="H65" s="7" t="str">
         <f>IF($E64=H$1, $C64 * $D64, "")</f>
         <v/>
       </c>
@@ -2474,19 +2470,19 @@
         <f>IF($E64=K$1, $C64 * $D64, "")</f>
         <v/>
       </c>
-      <c r="L65" s="8" t="str">
+      <c r="L65" s="21" t="str">
         <f>IF($E64=L$1, $C64 * $D64, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M65" s="8" t="str">
+        <f>IF($E64=M$1, $C64 * $D64, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="E66" s="8"/>
-      <c r="G66" s="7" t="str">
-        <f>IF($E65=G$1, $C65 * $D65, "")</f>
-        <v/>
-      </c>
-      <c r="H66" s="21" t="str">
+      <c r="H66" s="7" t="str">
         <f>IF($E65=H$1, $C65 * $D65, "")</f>
         <v/>
       </c>
@@ -2502,19 +2498,19 @@
         <f>IF($E65=K$1, $C65 * $D65, "")</f>
         <v/>
       </c>
-      <c r="L66" s="8" t="str">
+      <c r="L66" s="21" t="str">
         <f>IF($E65=L$1, $C65 * $D65, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66" s="8" t="str">
+        <f>IF($E65=M$1, $C65 * $D65, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="E67" s="8"/>
-      <c r="G67" s="7" t="str">
-        <f>IF($E66=G$1, $C66 * $D66, "")</f>
-        <v/>
-      </c>
-      <c r="H67" s="21" t="str">
+      <c r="H67" s="7" t="str">
         <f>IF($E66=H$1, $C66 * $D66, "")</f>
         <v/>
       </c>
@@ -2530,19 +2526,19 @@
         <f>IF($E66=K$1, $C66 * $D66, "")</f>
         <v/>
       </c>
-      <c r="L67" s="8" t="str">
+      <c r="L67" s="21" t="str">
         <f>IF($E66=L$1, $C66 * $D66, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M67" s="8" t="str">
+        <f>IF($E66=M$1, $C66 * $D66, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="E68" s="8"/>
-      <c r="G68" s="7" t="str">
-        <f>IF($E67=G$1, $C67 * $D67, "")</f>
-        <v/>
-      </c>
-      <c r="H68" s="21" t="str">
+      <c r="H68" s="7" t="str">
         <f>IF($E67=H$1, $C67 * $D67, "")</f>
         <v/>
       </c>
@@ -2558,19 +2554,19 @@
         <f>IF($E67=K$1, $C67 * $D67, "")</f>
         <v/>
       </c>
-      <c r="L68" s="8" t="str">
+      <c r="L68" s="21" t="str">
         <f>IF($E67=L$1, $C67 * $D67, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M68" s="8" t="str">
+        <f>IF($E67=M$1, $C67 * $D67, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="E69" s="8"/>
-      <c r="G69" s="7" t="str">
-        <f>IF($E68=G$1, $C68 * $D68, "")</f>
-        <v/>
-      </c>
-      <c r="H69" s="21" t="str">
+      <c r="H69" s="7" t="str">
         <f>IF($E68=H$1, $C68 * $D68, "")</f>
         <v/>
       </c>
@@ -2586,22 +2582,22 @@
         <f>IF($E68=K$1, $C68 * $D68, "")</f>
         <v/>
       </c>
-      <c r="L69" s="8" t="str">
+      <c r="L69" s="21" t="str">
         <f>IF($E68=L$1, $C68 * $D68, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="70" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M69" s="8" t="str">
+        <f>IF($E68=M$1, $C68 * $D68, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="11"/>
-      <c r="G70" s="9" t="str">
-        <f>IF($E69=G$1, $C69 * $D69, "")</f>
-        <v/>
-      </c>
-      <c r="H70" s="10" t="str">
+      <c r="H70" s="9" t="str">
         <f>IF($E69=H$1, $C69 * $D69, "")</f>
         <v/>
       </c>
@@ -2617,16 +2613,16 @@
         <f>IF($E69=K$1, $C69 * $D69, "")</f>
         <v/>
       </c>
-      <c r="L70" s="11" t="str">
+      <c r="L70" s="10" t="str">
         <f>IF($E69=L$1, $C69 * $D69, "")</f>
         <v/>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G71" t="str">
-        <f>IF($E70=G$1, $C70 * $D70, "")</f>
-        <v/>
-      </c>
+      <c r="M70" s="11" t="str">
+        <f>IF($E69=M$1, $C69 * $D69, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H71" t="str">
         <f>IF($E70=H$1, $C70 * $D70, "")</f>
         <v/>
@@ -2645,6 +2641,10 @@
       </c>
       <c r="L71" t="str">
         <f>IF($E70=L$1, $C70 * $D70, "")</f>
+        <v/>
+      </c>
+      <c r="M71" t="str">
+        <f>IF($E70=M$1, $C70 * $D70, "")</f>
         <v/>
       </c>
     </row>
